--- a/biology/Botanique/Solanum_anceps/Solanum_anceps.xlsx
+++ b/biology/Botanique/Solanum_anceps/Solanum_anceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum anceps est une espèce d'arbuste, appartenant à la famille des Solanaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum anceps est une herbacée ou un sous-arbrisseau, haut de 1-1,5 m, glabre à l'exception de minuscules poils simplex sur les parties les plus jeunes.
 Les feuilles sont simplets alternes avec des pétioles longs de 25-45 mm.
@@ -519,7 +533,7 @@
 Les inflorescences sont axillaires, simples, racémeuses, longues jusqu'à 3 cm, avec plusieurs fleurs.
 Les fleurs présentent une corolle profondément lobée, blanche, à lobes recourbés, longs de 2,5 mm, et des anthères longues de 1,3-1,5 mm
 Les fruits sont des baies vertes coniques, mesurant 15 × 10 mm, et à surface tuberculée.
-Les graines sont longues de 2,5 mm[3].
+Les graines sont longues de 2,5 mm.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette herbacée de sous-bois fleurit et fructifie quasiment toute l'année[3].
-La phyllogénie de la section Pteroidea à laquelle appartient Solanum anceps a été étudiée[4],[5],[6]
-La prédation par les chenilles du papillon Oleria onega et sa stratégie de ponte sur les feuilles de Solanum anceps ont été étudiées au Pérou[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette herbacée de sous-bois fleurit et fructifie quasiment toute l'année.
+La phyllogénie de la section Pteroidea à laquelle appartient Solanum anceps a été étudiée
+La prédation par les chenilles du papillon Oleria onega et sa stratégie de ponte sur les feuilles de Solanum anceps ont été étudiées au Pérou,.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum anceps est employée au Brésil comme plante médicinale par les Huni Kuĩ de l'ouest amazonien[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum anceps est employée au Brésil comme plante médicinale par les Huni Kuĩ de l'ouest amazonien.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum anceps a premièrement été décrit en 1775, par le botaniste Aublet sous le nom de Bassovia sylvatica[10] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum anceps a premièrement été décrit en 1775, par le botaniste Aublet sous le nom de Bassovia sylvatica : 
 « BASSOVIA (ſylvarica). (Tabula 85.)
 Planta tri aut quadri-pedalis, ramos plures, herbaceos, erectos, ramoſos, è radice emittens. Folia akerna, ampia, ovato-acuta, glabra? integerrima, petiolata.
 Flores exigui, corymboſi, axillares.
